--- a/Assets/Resources/classData.xlsx
+++ b/Assets/Resources/classData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GuildGame\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GuildGame\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8847CC3-142B-489C-B1D4-D387FF09D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B203EC16-FFEF-4C5A-B8B6-8F332A56C930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A2E052BC-E548-4D1B-B188-C4D6F3F89154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A2E052BC-E548-4D1B-B188-C4D6F3F89154}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanker" sheetId="1" r:id="rId1"/>
@@ -1773,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB33D3A2-E87B-4160-9F36-B0A1F4AEEE56}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -7127,7 +7127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CAEE6D-63D6-40AA-9282-B784DC6DCD92}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
